--- a/biology/Médecine/Serviette_de_bain/Serviette_de_bain.xlsx
+++ b/biology/Médecine/Serviette_de_bain/Serviette_de_bain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une serviette de bain est une pièce de tissu absorbant, généralement de forme rectangulaire, que l'on utilise pour se sécher le corps, après un bain, une douche ou tout autre épisode où on peut être mouillé (piscine, pluie, transpiration etc.). On parle aussi de serviette de toilette voire d'essuie de bain ou encore drap de bain en Belgique et linge (de bain) en Suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les serviettes de bain ne servent pas qu'à s'essuyer. Leurs usages sont extrêmement variés et appellent parfois une lecture sémiotique, à l'instar de l'ensemble du linge de maison ou de corps.
 Exemples d'usages pratiques :
@@ -528,7 +542,7 @@
 Exemples d'usages symboliques :
 Les supporters ont parfois une serviette aux couleurs de leur équipe.
 On trouve parfois des serviettes dans des danses folkloriques ou des processions.
-Utilisée pour le séchage du corps, il conviendra de la renouveler chaque trois jours et de la laisser à l'air libre si elle n'est pas lavée tout de suite[1].
+Utilisée pour le séchage du corps, il conviendra de la renouveler chaque trois jours et de la laisser à l'air libre si elle n'est pas lavée tout de suite.
 </t>
         </is>
       </c>
@@ -557,7 +571,9 @@
           <t>Matériaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les serviettes de bain sont usuellement en coton, lin et en microfibre.
 </t>
@@ -588,7 +604,9 @@
           <t>Dans la culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans Le Guide du voyageur galactique, les serviettes sont décrites comme l'objet « le plus souvent utile qu'un autostoppeur interstellaire puisse avoir ».[réf. nécessaire] Certains fans de Douglas Adams l'ont pris au mot et la serviette est maintenant considérée comme un symbole de dévotion à cet univers de fiction[réf. nécessaire]. Chaque 25 mai a lieu le jour de la serviette en mémoire de Douglas Adams.[réf. nécessaire]
 </t>
